--- a/ST-GAT/ST-GAT.xlsx
+++ b/ST-GAT/ST-GAT.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\ST-GAT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D77D28C-F739-4AAF-BEF3-0B999A720DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="24480" yWindow="972" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,80 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+  <si>
+    <t>===============================================================================================</t>
+  </si>
+  <si>
+    <t>Layer (type:depth-idx)                        Output Shape              Param #</t>
+  </si>
+  <si>
+    <t>Net                                           [16, 3684, 1]             346,304</t>
+  </si>
+  <si>
+    <t>├─BatchNorm1d: 1-1                            [16, 3684, 64]            7,368</t>
+  </si>
+  <si>
+    <t>├─TransformerEncoder: 1-2                     [16, 3684, 64]            --</t>
+  </si>
+  <si>
+    <t>│    └─ModuleList: 2-1                        --                        --</t>
+  </si>
+  <si>
+    <t>│    │    └─TransformerEncoderLayer: 3-1      [16, 3684, 64]            281,152</t>
+  </si>
+  <si>
+    <t>├─Linear: 1-3                                 [16, 307, 256]            196,864</t>
+  </si>
+  <si>
+    <t>├─BatchNorm1d: 1-4                            [16, 307, 256]            614</t>
+  </si>
+  <si>
+    <t>├─Linear: 1-5                                 [16, 307, 12]             3,084</t>
+  </si>
+  <si>
+    <t>Total params: 835,386</t>
+  </si>
+  <si>
+    <t>Trainable params: 835,386</t>
+  </si>
+  <si>
+    <t>Non-trainable params: 0</t>
+  </si>
+  <si>
+    <t>Total mult-adds (M): 3.33</t>
+  </si>
+  <si>
+    <t>Input size (MB): 0.24</t>
+  </si>
+  <si>
+    <t>Forward/backward pass size (MB): 50.77</t>
+  </si>
+  <si>
+    <t>Params size (MB): 0.83</t>
+  </si>
+  <si>
+    <t>Estimated Total Size (MB): 51.84</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +138,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>29378</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>140683</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C675D81-02A1-A566-AB45-287EA23769B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2865120" y="2049780"/>
+          <a:ext cx="8822858" cy="2297143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +451,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>